--- a/ЭиЗВ/LR_Влияние Акустического оформления на харектеристики электродинамических громкоговорителей/data.xlsx
+++ b/ЭиЗВ/LR_Влияние Акустического оформления на харектеристики электродинамических громкоговорителей/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\LR_Влияние Акустического оформления на харектеристики электродинамических громкоговорителей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32C905-57A3-4C7E-BC4D-B2F135C91631}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B120F5-F59D-4E09-A9D1-3D3FBCFAA876}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,6 +108,65 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> сопротивления от частоты сигнала</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -119,11 +178,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R, Ом</c:v>
+                  <c:v>Открытый</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,6 +586,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1131,14 +1221,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1434,7 +1524,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
